--- a/biology/Zoologie/Encyocrypta_koghi/Encyocrypta_koghi.xlsx
+++ b/biology/Zoologie/Encyocrypta_koghi/Encyocrypta_koghi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta koghi est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta koghi est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre sur le mont Koghis[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre sur le mont Koghis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 17 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 17 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le mont Koghis.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
